--- a/Test_Data/NewUsersForRegistration.xlsx
+++ b/Test_Data/NewUsersForRegistration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anshul\PycharmProjects\Automation Scripts\Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC8177F-ACF3-496D-83DA-2A0993B2D794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34897E62-CCE9-489B-8D53-303A742B4013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>Gender</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Male</t>
   </si>
   <si>
-    <t>ABCD</t>
-  </si>
-  <si>
     <t>Alabama</t>
   </si>
   <si>
@@ -96,19 +93,40 @@
     <t>Address</t>
   </si>
   <si>
-    <t>US 01</t>
-  </si>
-  <si>
     <t>City</t>
   </si>
   <si>
     <t>New York</t>
   </si>
   <si>
-    <t>1Test</t>
-  </si>
-  <si>
-    <t>test3011@test.com</t>
+    <t>anshultest2811@test.com</t>
+  </si>
+  <si>
+    <t>anshultest2812@test.com</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Anshul</t>
+  </si>
+  <si>
+    <t>Anshultest2811</t>
+  </si>
+  <si>
+    <t>Anshultest2812</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Company A</t>
+  </si>
+  <si>
+    <t>Company B</t>
+  </si>
+  <si>
+    <t>Address Line 1</t>
   </si>
 </sst>
 </file>
@@ -438,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -449,18 +467,21 @@
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.1796875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
@@ -480,13 +501,13 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>20</v>
-      </c>
-      <c r="H1" t="s">
-        <v>21</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
@@ -498,10 +519,10 @@
         <v>7</v>
       </c>
       <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
         <v>22</v>
-      </c>
-      <c r="M1" t="s">
-        <v>24</v>
       </c>
       <c r="N1" t="s">
         <v>8</v>
@@ -519,7 +540,7 @@
         <v>12</v>
       </c>
       <c r="S1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
@@ -527,49 +548,49 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" s="2">
         <v>1999</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
         <v>13</v>
       </c>
       <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
         <v>14</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" t="s">
-        <v>15</v>
       </c>
       <c r="O2">
         <v>10101</v>
       </c>
       <c r="P2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q2">
         <v>10101010</v>
@@ -578,14 +599,77 @@
         <v>10101010</v>
       </c>
       <c r="S2" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2">
+        <v>17</v>
+      </c>
+      <c r="G3">
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <v>1991</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3">
+        <v>20202</v>
+      </c>
+      <c r="P3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3">
+        <v>10101010</v>
+      </c>
+      <c r="R3">
+        <v>10101010</v>
+      </c>
+      <c r="S3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{FC5B645E-0453-478C-9EAD-F64E31FB2048}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{D0B336D5-ED4D-47D0-8B43-E1FD4D138492}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <ignoredErrors>
+    <ignoredError sqref="F2" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>